--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\test-offline-app\offline-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2803051A-123A-43A0-AF0C-C91D23FD3F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F9E97B-4EE4-40E0-A400-2B0BC8E21B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{262B3931-7938-4F10-89CE-A2E1A67B6232}"/>
+    <workbookView xWindow="-10000" yWindow="10830" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{262B3931-7938-4F10-89CE-A2E1A67B6232}"/>
   </bookViews>
   <sheets>
     <sheet name="Menus" sheetId="2" r:id="rId1"/>
@@ -1647,6 +1647,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,13 +1662,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1701,14 +1701,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1786,19 +1786,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1840,14 +1840,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1896,6 +1896,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFEE6C9A"/>
         </patternFill>
       </fill>
@@ -1904,13 +1911,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF55827"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1980,13 +1980,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1994,21 +1987,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEE6C9A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,6 +2022,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2057,7 +2043,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE6C9A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3876,7 +3876,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>725608</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3892,7 +3892,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="19050"/>
-          <a:ext cx="17745982" cy="818558"/>
+          <a:ext cx="17013358" cy="815976"/>
           <a:chOff x="0" y="19050"/>
           <a:chExt cx="16913622" cy="813991"/>
         </a:xfrm>
@@ -6773,13 +6773,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>149225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6849,9 +6849,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -6927,13 +6927,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -7105,7 +7105,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="19050"/>
-          <a:ext cx="17802924" cy="815975"/>
+          <a:ext cx="17085374" cy="812800"/>
           <a:chOff x="0" y="19050"/>
           <a:chExt cx="16913622" cy="813991"/>
         </a:xfrm>
@@ -10486,8 +10486,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10826750" y="949325"/>
-          <a:ext cx="1120775" cy="447675"/>
+          <a:off x="10394950" y="946150"/>
+          <a:ext cx="1047750" cy="463550"/>
           <a:chOff x="10363200" y="942975"/>
           <a:chExt cx="1038225" cy="466725"/>
         </a:xfrm>
@@ -10754,8 +10754,8 @@
       <definedName name="ShowRibbon"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="10">
           <cell r="B10" t="str">
             <v>High</v>
@@ -10912,7 +10912,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="3">
           <cell r="E3" t="str">
             <v>L01</v>
@@ -11264,14 +11264,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1">
         <row r="7">
           <cell r="L7" t="str">
             <v>NS Rota</v>
@@ -11790,30 +11790,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -11871,7 +11871,7 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Inc" xr10:uid="{AD5EB806-1533-4B83-98AD-925A2F35709C}" cache="Slicer_Inc" caption="Inc" rowHeight="257175"/>
   <slicer name="Capacity_Domain" xr10:uid="{2AD4F7BF-ED9A-4176-9F59-9EFE803BD8AD}" cache="Slicer_Capacity_Domain" caption="Domain" rowHeight="257175"/>
-  <slicer name="Capacity_Category" xr10:uid="{EEAE2789-316D-4B01-961D-3B21EBA9B2A1}" cache="Slicer_Capacity_Category" caption="Category" rowHeight="257175"/>
+  <slicer name="Capacity_Category" xr10:uid="{EEAE2789-316D-4B01-961D-3B21EBA9B2A1}" cache="Slicer_Capacity_Category" caption="Category" startItem="7" rowHeight="257175"/>
 </slicers>
 </file>
 
@@ -12371,60 +12371,60 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>323</v>
       </c>
@@ -12440,30 +12440,30 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:CI149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4:X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7265625" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="5" customWidth="1"/>
-    <col min="13" max="87" width="18.7265625" style="6" customWidth="1"/>
-    <col min="88" max="90" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13" max="87" width="18.7109375" style="6" customWidth="1"/>
+    <col min="88" max="90" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:87" s="1" customFormat="1" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:87" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -12541,10 +12541,10 @@
       <c r="CH1" s="3"/>
       <c r="CI1" s="3"/>
     </row>
-    <row r="2" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="2:87" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:87" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -12555,7 +12555,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:87" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -12711,7 +12711,7 @@
       <c r="CH4" s="37"/>
       <c r="CI4" s="37"/>
     </row>
-    <row r="5" spans="2:87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="M5" s="6">
         <f t="shared" ref="M5:AR5" si="0">IF(LEFT(M$6,3)=VLOOKUP($B$4,reflist_LocName,3,FALSE),1,0)</f>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:87" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:87" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="E6" s="9" t="s">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="E7" s="13" t="b">
         <v>1</v>
@@ -13380,7 +13380,7 @@
       <c r="CH7" s="14"/>
       <c r="CI7" s="14"/>
     </row>
-    <row r="8" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="E8" s="13" t="b">
         <v>1</v>
@@ -13500,7 +13500,7 @@
       <c r="CH8" s="14"/>
       <c r="CI8" s="14"/>
     </row>
-    <row r="9" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="E9" s="13" t="b">
         <v>1</v>
@@ -13620,7 +13620,7 @@
       <c r="CH9" s="14"/>
       <c r="CI9" s="14"/>
     </row>
-    <row r="10" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="E10" s="13" t="b">
         <v>1</v>
@@ -13734,7 +13734,7 @@
       <c r="CH10" s="14"/>
       <c r="CI10" s="14"/>
     </row>
-    <row r="11" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="E11" s="13" t="b">
         <v>1</v>
@@ -13848,7 +13848,7 @@
       <c r="CH11" s="14"/>
       <c r="CI11" s="14"/>
     </row>
-    <row r="12" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="E12" s="13" t="b">
         <v>1</v>
@@ -13962,7 +13962,7 @@
       <c r="CH12" s="14"/>
       <c r="CI12" s="14"/>
     </row>
-    <row r="13" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="E13" s="13" t="b">
         <v>1</v>
@@ -14073,7 +14073,7 @@
       <c r="CH13" s="14"/>
       <c r="CI13" s="14"/>
     </row>
-    <row r="14" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="E14" s="13" t="b">
         <v>1</v>
@@ -14184,7 +14184,7 @@
       <c r="CH14" s="14"/>
       <c r="CI14" s="14"/>
     </row>
-    <row r="15" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="E15" s="13" t="b">
         <v>1</v>
@@ -14295,7 +14295,7 @@
       <c r="CH15" s="14"/>
       <c r="CI15" s="14"/>
     </row>
-    <row r="16" spans="2:87" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:87" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="E16" s="13" t="b">
         <v>1</v>
@@ -14400,7 +14400,7 @@
       <c r="CH16" s="14"/>
       <c r="CI16" s="14"/>
     </row>
-    <row r="17" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="E17" s="13" t="b">
         <v>1</v>
@@ -14505,7 +14505,7 @@
       <c r="CH17" s="14"/>
       <c r="CI17" s="14"/>
     </row>
-    <row r="18" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
       <c r="E18" s="13" t="b">
         <v>1</v>
@@ -14616,7 +14616,7 @@
       <c r="CH18" s="14"/>
       <c r="CI18" s="14"/>
     </row>
-    <row r="19" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="E19" s="13" t="b">
         <v>1</v>
@@ -14727,7 +14727,7 @@
       <c r="CH19" s="14"/>
       <c r="CI19" s="14"/>
     </row>
-    <row r="20" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="E20" s="13" t="b">
         <v>1</v>
@@ -14832,7 +14832,7 @@
       <c r="CH20" s="14"/>
       <c r="CI20" s="14"/>
     </row>
-    <row r="21" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="E21" s="13" t="b">
         <v>1</v>
@@ -14937,7 +14937,7 @@
       <c r="CH21" s="14"/>
       <c r="CI21" s="14"/>
     </row>
-    <row r="22" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="E22" s="13" t="b">
         <v>1</v>
@@ -15042,7 +15042,7 @@
       <c r="CH22" s="14"/>
       <c r="CI22" s="14"/>
     </row>
-    <row r="23" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="E23" s="13" t="b">
         <v>1</v>
@@ -15147,7 +15147,7 @@
       <c r="CH23" s="14"/>
       <c r="CI23" s="14"/>
     </row>
-    <row r="24" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="E24" s="13" t="b">
         <v>1</v>
@@ -15252,7 +15252,7 @@
       <c r="CH24" s="14"/>
       <c r="CI24" s="14"/>
     </row>
-    <row r="25" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="E25" s="13" t="b">
         <v>1</v>
@@ -15357,7 +15357,7 @@
       <c r="CH25" s="14"/>
       <c r="CI25" s="14"/>
     </row>
-    <row r="26" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="E26" s="13" t="b">
         <v>1</v>
@@ -15462,7 +15462,7 @@
       <c r="CH26" s="14"/>
       <c r="CI26" s="14"/>
     </row>
-    <row r="27" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="E27" s="13" t="b">
         <v>1</v>
@@ -15567,7 +15567,7 @@
       <c r="CH27" s="14"/>
       <c r="CI27" s="14"/>
     </row>
-    <row r="28" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="E28" s="13" t="b">
         <v>1</v>
@@ -15672,7 +15672,7 @@
       <c r="CH28" s="14"/>
       <c r="CI28" s="14"/>
     </row>
-    <row r="29" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="E29" s="13" t="b">
         <v>1</v>
@@ -15777,7 +15777,7 @@
       <c r="CH29" s="14"/>
       <c r="CI29" s="14"/>
     </row>
-    <row r="30" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="E30" s="13" t="b">
         <v>1</v>
@@ -15882,7 +15882,7 @@
       <c r="CH30" s="14"/>
       <c r="CI30" s="14"/>
     </row>
-    <row r="31" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="E31" s="13" t="b">
         <v>1</v>
@@ -15987,7 +15987,7 @@
       <c r="CH31" s="14"/>
       <c r="CI31" s="14"/>
     </row>
-    <row r="32" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="E32" s="13" t="b">
         <v>1</v>
@@ -16092,7 +16092,7 @@
       <c r="CH32" s="14"/>
       <c r="CI32" s="14"/>
     </row>
-    <row r="33" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="E33" s="13" t="b">
         <v>1</v>
@@ -16197,7 +16197,7 @@
       <c r="CH33" s="14"/>
       <c r="CI33" s="14"/>
     </row>
-    <row r="34" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="E34" s="13" t="b">
         <v>1</v>
@@ -16302,7 +16302,7 @@
       <c r="CH34" s="14"/>
       <c r="CI34" s="14"/>
     </row>
-    <row r="35" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="E35" s="13" t="b">
         <v>1</v>
@@ -16407,7 +16407,7 @@
       <c r="CH35" s="14"/>
       <c r="CI35" s="14"/>
     </row>
-    <row r="36" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="E36" s="13" t="b">
         <v>1</v>
@@ -16512,7 +16512,7 @@
       <c r="CH36" s="14"/>
       <c r="CI36" s="14"/>
     </row>
-    <row r="37" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="E37" s="13" t="b">
         <v>1</v>
@@ -16617,7 +16617,7 @@
       <c r="CH37" s="14"/>
       <c r="CI37" s="14"/>
     </row>
-    <row r="38" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="E38" s="13" t="b">
         <v>1</v>
@@ -16722,7 +16722,7 @@
       <c r="CH38" s="14"/>
       <c r="CI38" s="14"/>
     </row>
-    <row r="39" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="E39" s="13" t="b">
         <v>1</v>
@@ -16821,7 +16821,7 @@
       <c r="CH39" s="14"/>
       <c r="CI39" s="14"/>
     </row>
-    <row r="40" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="E40" s="13" t="b">
         <v>1</v>
@@ -16926,7 +16926,7 @@
       <c r="CH40" s="14"/>
       <c r="CI40" s="14"/>
     </row>
-    <row r="41" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="E41" s="13" t="b">
         <v>1</v>
@@ -17031,7 +17031,7 @@
       <c r="CH41" s="14"/>
       <c r="CI41" s="14"/>
     </row>
-    <row r="42" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="E42" s="13" t="b">
         <v>1</v>
@@ -17136,7 +17136,7 @@
       <c r="CH42" s="14"/>
       <c r="CI42" s="14"/>
     </row>
-    <row r="43" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="E43" s="13" t="b">
         <v>1</v>
@@ -17241,7 +17241,7 @@
       <c r="CH43" s="14"/>
       <c r="CI43" s="14"/>
     </row>
-    <row r="44" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="E44" s="13" t="b">
         <v>1</v>
@@ -17340,7 +17340,7 @@
       <c r="CH44" s="14"/>
       <c r="CI44" s="14"/>
     </row>
-    <row r="45" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="E45" s="13" t="b">
         <v>1</v>
@@ -17439,7 +17439,7 @@
       <c r="CH45" s="14"/>
       <c r="CI45" s="14"/>
     </row>
-    <row r="46" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="E46" s="13" t="b">
         <v>1</v>
@@ -17538,7 +17538,7 @@
       <c r="CH46" s="14"/>
       <c r="CI46" s="14"/>
     </row>
-    <row r="47" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="E47" s="13" t="b">
         <v>1</v>
@@ -17637,7 +17637,7 @@
       <c r="CH47" s="14"/>
       <c r="CI47" s="14"/>
     </row>
-    <row r="48" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="E48" s="13" t="b">
         <v>1</v>
@@ -17736,7 +17736,7 @@
       <c r="CH48" s="14"/>
       <c r="CI48" s="14"/>
     </row>
-    <row r="49" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="E49" s="13" t="b">
         <v>1</v>
@@ -17835,7 +17835,7 @@
       <c r="CH49" s="14"/>
       <c r="CI49" s="14"/>
     </row>
-    <row r="50" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="E50" s="13" t="b">
         <v>1</v>
@@ -17934,7 +17934,7 @@
       <c r="CH50" s="14"/>
       <c r="CI50" s="14"/>
     </row>
-    <row r="51" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="E51" s="13" t="b">
         <v>1</v>
@@ -18033,7 +18033,7 @@
       <c r="CH51" s="14"/>
       <c r="CI51" s="14"/>
     </row>
-    <row r="52" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="E52" s="13" t="b">
         <v>1</v>
@@ -18132,7 +18132,7 @@
       <c r="CH52" s="14"/>
       <c r="CI52" s="14"/>
     </row>
-    <row r="53" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="E53" s="13" t="b">
         <v>1</v>
@@ -18231,7 +18231,7 @@
       <c r="CH53" s="14"/>
       <c r="CI53" s="14"/>
     </row>
-    <row r="54" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="E54" s="13" t="b">
         <v>1</v>
@@ -18336,7 +18336,7 @@
       <c r="CH54" s="14"/>
       <c r="CI54" s="14"/>
     </row>
-    <row r="55" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="E55" s="13" t="b">
         <v>1</v>
@@ -18441,7 +18441,7 @@
       <c r="CH55" s="14"/>
       <c r="CI55" s="14"/>
     </row>
-    <row r="56" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="E56" s="13" t="b">
         <v>1</v>
@@ -18546,7 +18546,7 @@
       <c r="CH56" s="14"/>
       <c r="CI56" s="14"/>
     </row>
-    <row r="57" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="E57" s="13" t="b">
         <v>1</v>
@@ -18651,7 +18651,7 @@
       <c r="CH57" s="14"/>
       <c r="CI57" s="14"/>
     </row>
-    <row r="58" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="E58" s="13" t="b">
         <v>1</v>
@@ -18756,7 +18756,7 @@
       <c r="CH58" s="14"/>
       <c r="CI58" s="14"/>
     </row>
-    <row r="59" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="E59" s="13" t="b">
         <v>1</v>
@@ -18861,7 +18861,7 @@
       <c r="CH59" s="14"/>
       <c r="CI59" s="14"/>
     </row>
-    <row r="60" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="E60" s="13" t="b">
         <v>1</v>
@@ -18966,7 +18966,7 @@
       <c r="CH60" s="14"/>
       <c r="CI60" s="14"/>
     </row>
-    <row r="61" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="E61" s="13" t="b">
         <v>1</v>
@@ -19071,7 +19071,7 @@
       <c r="CH61" s="14"/>
       <c r="CI61" s="14"/>
     </row>
-    <row r="62" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="E62" s="13" t="b">
         <v>1</v>
@@ -19176,7 +19176,7 @@
       <c r="CH62" s="14"/>
       <c r="CI62" s="14"/>
     </row>
-    <row r="63" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="E63" s="13" t="b">
         <v>1</v>
@@ -19281,7 +19281,7 @@
       <c r="CH63" s="14"/>
       <c r="CI63" s="14"/>
     </row>
-    <row r="64" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="E64" s="13" t="b">
         <v>1</v>
@@ -19386,7 +19386,7 @@
       <c r="CH64" s="14"/>
       <c r="CI64" s="14"/>
     </row>
-    <row r="65" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="E65" s="13" t="b">
         <v>1</v>
@@ -19491,7 +19491,7 @@
       <c r="CH65" s="14"/>
       <c r="CI65" s="14"/>
     </row>
-    <row r="66" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="E66" s="13" t="b">
         <v>1</v>
@@ -19596,7 +19596,7 @@
       <c r="CH66" s="14"/>
       <c r="CI66" s="14"/>
     </row>
-    <row r="67" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="E67" s="13" t="b">
         <v>1</v>
@@ -19701,7 +19701,7 @@
       <c r="CH67" s="14"/>
       <c r="CI67" s="14"/>
     </row>
-    <row r="68" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="E68" s="13" t="b">
         <v>1</v>
@@ -19806,7 +19806,7 @@
       <c r="CH68" s="14"/>
       <c r="CI68" s="14"/>
     </row>
-    <row r="69" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="E69" s="13" t="b">
         <v>1</v>
@@ -19911,7 +19911,7 @@
       <c r="CH69" s="14"/>
       <c r="CI69" s="14"/>
     </row>
-    <row r="70" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="E70" s="13" t="b">
         <v>1</v>
@@ -20016,7 +20016,7 @@
       <c r="CH70" s="14"/>
       <c r="CI70" s="14"/>
     </row>
-    <row r="71" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="E71" s="13" t="b">
         <v>1</v>
@@ -20121,7 +20121,7 @@
       <c r="CH71" s="14"/>
       <c r="CI71" s="14"/>
     </row>
-    <row r="72" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="E72" s="13" t="b">
         <v>1</v>
@@ -20226,7 +20226,7 @@
       <c r="CH72" s="14"/>
       <c r="CI72" s="14"/>
     </row>
-    <row r="73" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="E73" s="13" t="b">
         <v>1</v>
@@ -20331,7 +20331,7 @@
       <c r="CH73" s="14"/>
       <c r="CI73" s="14"/>
     </row>
-    <row r="74" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="E74" s="13" t="b">
         <v>1</v>
@@ -20436,239 +20436,241 @@
       <c r="CH74" s="14"/>
       <c r="CI74" s="14"/>
     </row>
-    <row r="75" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:87" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="7"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="7"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="7"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="7"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="CD4:CF4"/>
+    <mergeCell ref="CG4:CI4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="CA4:CC4"/>
     <mergeCell ref="BI4:BK4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -20681,14 +20683,12 @@
     <mergeCell ref="AZ4:BB4"/>
     <mergeCell ref="BC4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="CD4:CF4"/>
-    <mergeCell ref="CG4:CI4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="CA4:CC4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -20712,36 +20712,36 @@
   <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH18" sqref="AH18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="17" customWidth="1"/>
-    <col min="6" max="11" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="12.7265625" customWidth="1"/>
-    <col min="18" max="20" width="12.7265625" hidden="1" customWidth="1"/>
-    <col min="21" max="30" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
+    <col min="6" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="20" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="30" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="16"/>
     </row>
-    <row r="5" spans="1:30" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="1:30" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C5" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>326</v>
       </c>
       <c r="F5" s="18" t="str">
@@ -20845,10 +20845,10 @@
         <v>Exclude</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="17" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+    <row r="6" spans="1:30" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="21" t="s">
         <v>327</v>
       </c>
@@ -20925,11 +20925,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -20971,9 +20971,9 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
-      <c r="C8" s="43"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="26" t="s">
         <v>107</v>
       </c>
@@ -21009,11 +21009,11 @@
       <c r="AC8" s="27"/>
       <c r="AD8" s="27"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="26" t="s">
         <v>136</v>
       </c>
@@ -21049,11 +21049,11 @@
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="26" t="s">
         <v>148</v>
       </c>
@@ -21087,11 +21087,11 @@
       <c r="AC10" s="27"/>
       <c r="AD10" s="27"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="26" t="s">
         <v>158</v>
       </c>
@@ -21125,11 +21125,11 @@
       <c r="AC11" s="27"/>
       <c r="AD11" s="27"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="26" t="s">
         <v>173</v>
       </c>
@@ -21165,11 +21165,11 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="26" t="s">
         <v>177</v>
       </c>
@@ -21203,11 +21203,11 @@
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="26" t="s">
         <v>182</v>
       </c>
@@ -21241,9 +21241,9 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="30" t="s">
         <v>187</v>
       </c>
@@ -21279,9 +21279,9 @@
       <c r="AC15" s="32"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="41" t="s">
         <v>191</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -21317,9 +21317,9 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="33" t="s">
         <v>258</v>
       </c>
@@ -21355,8 +21355,8 @@
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="C18" s="43"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C18" s="41"/>
       <c r="D18" s="26" t="s">
         <v>196</v>
       </c>
@@ -21390,11 +21390,11 @@
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="26" t="s">
         <v>203</v>
       </c>
@@ -21428,11 +21428,11 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="26" t="s">
         <v>213</v>
       </c>
@@ -21466,11 +21466,11 @@
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="26" t="s">
         <v>219</v>
       </c>
@@ -21504,11 +21504,11 @@
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="26" t="s">
         <v>223</v>
       </c>
@@ -21542,12 +21542,12 @@
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="str">
         <f>[1]ModelUse!K12</f>
         <v>Upgrade</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="26" t="s">
         <v>227</v>
       </c>
@@ -21581,11 +21581,11 @@
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="26" t="s">
         <v>232</v>
       </c>
@@ -21619,9 +21619,9 @@
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="C25" s="43"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="26" t="s">
         <v>243</v>
       </c>
@@ -21655,9 +21655,9 @@
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="C26" s="43"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="26" t="s">
         <v>248</v>
       </c>
@@ -21691,9 +21691,9 @@
       <c r="AC26" s="27"/>
       <c r="AD26" s="27"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="30" t="s">
         <v>253</v>
       </c>
@@ -21727,9 +21727,9 @@
       <c r="AC27" s="32"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="40" t="s">
         <v>267</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -21767,9 +21767,9 @@
       <c r="AC28" s="34"/>
       <c r="AD28" s="34"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="26" t="s">
         <v>273</v>
       </c>
@@ -21803,12 +21803,12 @@
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="str">
         <f>[1]ModelUse!L10</f>
         <v>Build New</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="26" t="s">
         <v>277</v>
       </c>
@@ -21844,11 +21844,11 @@
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="26" t="s">
         <v>281</v>
       </c>
@@ -21882,12 +21882,12 @@
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="str">
         <f>[1]ModelUse!L11</f>
         <v>Renovate</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="26" t="s">
         <v>285</v>
       </c>
@@ -21921,11 +21921,11 @@
       <c r="AC32" s="27"/>
       <c r="AD32" s="27"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="26" t="s">
         <v>289</v>
       </c>
@@ -21959,12 +21959,12 @@
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="str">
         <f>[1]ModelUse!L12</f>
         <v>Reconfigure</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="26" t="s">
         <v>293</v>
       </c>
@@ -21998,11 +21998,11 @@
       <c r="AC34" s="27"/>
       <c r="AD34" s="27"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="26" t="s">
         <v>297</v>
       </c>
@@ -22036,12 +22036,12 @@
       <c r="AC35" s="27"/>
       <c r="AD35" s="27"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="str">
         <f>[1]ModelUse!L13</f>
         <v>Demolish</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="26" t="s">
         <v>301</v>
       </c>
@@ -22077,11 +22077,11 @@
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="26" t="s">
         <v>232</v>
       </c>
@@ -22115,9 +22115,9 @@
       <c r="AC37" s="27"/>
       <c r="AD37" s="27"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="26" t="s">
         <v>306</v>
       </c>
@@ -22151,9 +22151,9 @@
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="26" t="s">
         <v>310</v>
       </c>
@@ -22197,47 +22197,47 @@
     <mergeCell ref="C16:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="35" operator="equal">
+      <formula>"Surge"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
       <formula>"Keep Steady"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
-      <formula>"Surge"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
       <formula>"Move From"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="32" operator="equal">
+      <formula>"Surge"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"Move From"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
       <formula>"Keep Steady"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
-      <formula>"Surge"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
-      <formula>"Surge"</formula>
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+      <formula>"Move From"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"Keep Steady"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
-      <formula>"Move From"</formula>
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+      <formula>"Surge"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
     <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
       <formula>"Surge"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+      <formula>"Move From"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"Keep Steady"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
-      <formula>"Move From"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
@@ -22274,14 +22274,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
-      <formula>"Renovate"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>"Demolish"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>"Build New"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>"Renovate"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"Reconfigure"</formula>
@@ -22305,11 +22305,11 @@
     <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"Build New"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+      <formula>"Reconfigure"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Renovate"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
-      <formula>"Reconfigure"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"Demolish"</formula>
@@ -22330,11 +22330,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E39">
-    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="49" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="48" operator="equal">
       <formula>"Extremely High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
-      <formula>"High"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="50" operator="equal">
       <formula>"Moderate"</formula>
@@ -22372,11 +22372,11 @@
     <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
       <formula>"Add Capacity"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
+      <formula>"Upgrade"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="43" operator="equal">
       <formula>"Maintain"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
-      <formula>"Upgrade"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:AD39">
